--- a/CheckUp.xlsx
+++ b/CheckUp.xlsx
@@ -829,7 +829,7 @@
         <v>13</v>
       </c>
       <c r="D2">
-        <v>517.6900000000001</v>
+        <v>528.25</v>
       </c>
       <c r="G2">
         <v>1399</v>
@@ -843,7 +843,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>517.6900000000001</v>
+        <v>528.25</v>
       </c>
       <c r="G3">
         <v>1399</v>
@@ -857,7 +857,7 @@
         <v>15</v>
       </c>
       <c r="D4">
-        <v>517.6900000000001</v>
+        <v>528.25</v>
       </c>
       <c r="G4">
         <v>1399</v>
@@ -871,7 +871,7 @@
         <v>16</v>
       </c>
       <c r="D5">
-        <v>517.6900000000001</v>
+        <v>528.25</v>
       </c>
       <c r="G5">
         <v>1399</v>
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="D6">
-        <v>517.6900000000001</v>
+        <v>528.25</v>
       </c>
       <c r="G6">
         <v>1399</v>
@@ -899,7 +899,7 @@
         <v>18</v>
       </c>
       <c r="D7">
-        <v>517.6900000000001</v>
+        <v>528.25</v>
       </c>
       <c r="G7">
         <v>1399</v>
@@ -913,7 +913,7 @@
         <v>19</v>
       </c>
       <c r="D8">
-        <v>517.6900000000001</v>
+        <v>528.25</v>
       </c>
       <c r="G8">
         <v>1399</v>
@@ -927,7 +927,7 @@
         <v>20</v>
       </c>
       <c r="D9">
-        <v>517.6900000000001</v>
+        <v>528.25</v>
       </c>
       <c r="G9">
         <v>1399</v>
@@ -941,7 +941,7 @@
         <v>21</v>
       </c>
       <c r="D10">
-        <v>517.6900000000001</v>
+        <v>528.25</v>
       </c>
       <c r="G10">
         <v>1399</v>
@@ -955,7 +955,7 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>517.6900000000001</v>
+        <v>528.25</v>
       </c>
       <c r="G11">
         <v>1399</v>
@@ -969,7 +969,7 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>517.6900000000001</v>
+        <v>528.25</v>
       </c>
       <c r="G12">
         <v>1399</v>
@@ -983,7 +983,7 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>517.6900000000001</v>
+        <v>528.25</v>
       </c>
       <c r="G13">
         <v>1399</v>
@@ -997,7 +997,7 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>517.6900000000001</v>
+        <v>528.25</v>
       </c>
       <c r="G14">
         <v>1399</v>
@@ -1011,7 +1011,7 @@
         <v>26</v>
       </c>
       <c r="D15">
-        <v>517.6900000000001</v>
+        <v>528.25</v>
       </c>
       <c r="G15">
         <v>1399</v>
@@ -1025,7 +1025,7 @@
         <v>27</v>
       </c>
       <c r="D16">
-        <v>517.6900000000001</v>
+        <v>528.25</v>
       </c>
       <c r="G16">
         <v>1399</v>
@@ -1039,7 +1039,7 @@
         <v>28</v>
       </c>
       <c r="D17">
-        <v>517.6900000000001</v>
+        <v>528.25</v>
       </c>
       <c r="G17">
         <v>1399</v>
@@ -1053,7 +1053,7 @@
         <v>29</v>
       </c>
       <c r="D18">
-        <v>517.6900000000001</v>
+        <v>528.25</v>
       </c>
       <c r="G18">
         <v>1399</v>
@@ -1067,7 +1067,7 @@
         <v>30</v>
       </c>
       <c r="D19">
-        <v>517.6900000000001</v>
+        <v>528.25</v>
       </c>
       <c r="G19">
         <v>1399</v>
@@ -1081,7 +1081,7 @@
         <v>31</v>
       </c>
       <c r="D20">
-        <v>443.7</v>
+        <v>452.75</v>
       </c>
       <c r="G20">
         <v>1199</v>
@@ -1095,7 +1095,7 @@
         <v>32</v>
       </c>
       <c r="D21">
-        <v>443.7</v>
+        <v>452.75</v>
       </c>
       <c r="G21">
         <v>1199</v>
@@ -1109,7 +1109,7 @@
         <v>33</v>
       </c>
       <c r="D22">
-        <v>443.7</v>
+        <v>452.75</v>
       </c>
       <c r="G22">
         <v>1199</v>
@@ -1123,7 +1123,7 @@
         <v>34</v>
       </c>
       <c r="D23">
-        <v>443.7</v>
+        <v>452.75</v>
       </c>
       <c r="G23">
         <v>1199</v>
@@ -1137,7 +1137,7 @@
         <v>35</v>
       </c>
       <c r="D24">
-        <v>443.7</v>
+        <v>452.75</v>
       </c>
       <c r="G24">
         <v>1199</v>
@@ -1151,7 +1151,7 @@
         <v>36</v>
       </c>
       <c r="D25">
-        <v>443.7</v>
+        <v>452.75</v>
       </c>
       <c r="G25">
         <v>1199</v>
@@ -1165,7 +1165,7 @@
         <v>37</v>
       </c>
       <c r="D26">
-        <v>443.7</v>
+        <v>452.75</v>
       </c>
       <c r="G26">
         <v>1199</v>
@@ -1179,7 +1179,7 @@
         <v>38</v>
       </c>
       <c r="D27">
-        <v>443.7</v>
+        <v>452.75</v>
       </c>
       <c r="G27">
         <v>1199</v>
@@ -1193,7 +1193,7 @@
         <v>39</v>
       </c>
       <c r="D28">
-        <v>443.7</v>
+        <v>452.75</v>
       </c>
       <c r="G28">
         <v>1199</v>
@@ -1207,7 +1207,7 @@
         <v>40</v>
       </c>
       <c r="D29">
-        <v>443.7</v>
+        <v>452.75</v>
       </c>
       <c r="G29">
         <v>1199</v>
@@ -1221,7 +1221,7 @@
         <v>41</v>
       </c>
       <c r="D30">
-        <v>517.6900000000001</v>
+        <v>528.25</v>
       </c>
       <c r="G30">
         <v>1399</v>
@@ -1235,7 +1235,7 @@
         <v>42</v>
       </c>
       <c r="D31">
-        <v>517.6900000000001</v>
+        <v>528.25</v>
       </c>
       <c r="G31">
         <v>1399</v>
@@ -1249,7 +1249,7 @@
         <v>43</v>
       </c>
       <c r="D32">
-        <v>517.6900000000001</v>
+        <v>528.25</v>
       </c>
       <c r="G32">
         <v>1399</v>
@@ -1263,7 +1263,7 @@
         <v>44</v>
       </c>
       <c r="D33">
-        <v>517.6900000000001</v>
+        <v>528.25</v>
       </c>
       <c r="G33">
         <v>1399</v>
@@ -1277,7 +1277,7 @@
         <v>45</v>
       </c>
       <c r="D34">
-        <v>517.6900000000001</v>
+        <v>528.25</v>
       </c>
       <c r="G34">
         <v>1399</v>
@@ -1361,7 +1361,7 @@
         <v>46</v>
       </c>
       <c r="D40">
-        <v>93.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="G40">
         <v>299</v>
@@ -1375,7 +1375,7 @@
         <v>47</v>
       </c>
       <c r="D41">
-        <v>93.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="G41">
         <v>299</v>
@@ -1389,7 +1389,7 @@
         <v>48</v>
       </c>
       <c r="D42">
-        <v>93.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="G42">
         <v>299</v>
@@ -1403,7 +1403,7 @@
         <v>49</v>
       </c>
       <c r="D43">
-        <v>93.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="G43">
         <v>299</v>
@@ -1473,7 +1473,7 @@
         <v>50</v>
       </c>
       <c r="D48">
-        <v>665.42</v>
+        <v>679</v>
       </c>
       <c r="G48">
         <v>1799</v>
@@ -1487,7 +1487,7 @@
         <v>51</v>
       </c>
       <c r="D49">
-        <v>665.42</v>
+        <v>679</v>
       </c>
       <c r="G49">
         <v>1799</v>
@@ -1501,7 +1501,7 @@
         <v>52</v>
       </c>
       <c r="D50">
-        <v>665.42</v>
+        <v>679</v>
       </c>
       <c r="G50">
         <v>1799</v>
@@ -1613,7 +1613,7 @@
         <v>57</v>
       </c>
       <c r="D58">
-        <v>554.6799999999999</v>
+        <v>566</v>
       </c>
       <c r="G58">
         <v>1499</v>
@@ -1627,7 +1627,7 @@
         <v>58</v>
       </c>
       <c r="D59">
-        <v>554.6799999999999</v>
+        <v>566</v>
       </c>
       <c r="G59">
         <v>1499</v>
@@ -1641,7 +1641,7 @@
         <v>59</v>
       </c>
       <c r="D60">
-        <v>554.6799999999999</v>
+        <v>566</v>
       </c>
       <c r="G60">
         <v>1499</v>
@@ -1753,7 +1753,7 @@
         <v>64</v>
       </c>
       <c r="D68">
-        <v>610.05</v>
+        <v>622.5</v>
       </c>
       <c r="G68">
         <v>1699</v>
@@ -1767,7 +1767,7 @@
         <v>65</v>
       </c>
       <c r="D69">
-        <v>610.05</v>
+        <v>622.5</v>
       </c>
       <c r="G69">
         <v>1699</v>
@@ -1781,7 +1781,7 @@
         <v>66</v>
       </c>
       <c r="D70">
-        <v>610.05</v>
+        <v>622.5</v>
       </c>
       <c r="G70">
         <v>1699</v>
@@ -1795,7 +1795,7 @@
         <v>67</v>
       </c>
       <c r="D71">
-        <v>610.05</v>
+        <v>622.5</v>
       </c>
       <c r="G71">
         <v>1699</v>
@@ -1935,7 +1935,7 @@
         <v>73</v>
       </c>
       <c r="D81">
-        <v>554.6799999999999</v>
+        <v>566</v>
       </c>
       <c r="G81">
         <v>1499</v>
@@ -1949,7 +1949,7 @@
         <v>74</v>
       </c>
       <c r="D82">
-        <v>554.6799999999999</v>
+        <v>566</v>
       </c>
       <c r="G82">
         <v>1499</v>
@@ -1963,7 +1963,7 @@
         <v>75</v>
       </c>
       <c r="D83">
-        <v>554.6799999999999</v>
+        <v>566</v>
       </c>
       <c r="G83">
         <v>1499</v>
@@ -1977,7 +1977,7 @@
         <v>76</v>
       </c>
       <c r="D84">
-        <v>554.6799999999999</v>
+        <v>566</v>
       </c>
       <c r="G84">
         <v>1499</v>
@@ -2047,7 +2047,7 @@
         <v>81</v>
       </c>
       <c r="D89">
-        <v>277.34</v>
+        <v>283</v>
       </c>
       <c r="G89">
         <v>749</v>
@@ -2061,7 +2061,7 @@
         <v>82</v>
       </c>
       <c r="D90">
-        <v>277.34</v>
+        <v>283</v>
       </c>
       <c r="G90">
         <v>749</v>
@@ -2075,7 +2075,7 @@
         <v>83</v>
       </c>
       <c r="D91">
-        <v>277.34</v>
+        <v>283</v>
       </c>
       <c r="G91">
         <v>749</v>
@@ -2089,7 +2089,7 @@
         <v>84</v>
       </c>
       <c r="D92">
-        <v>277.34</v>
+        <v>283</v>
       </c>
       <c r="G92">
         <v>749</v>
@@ -2103,7 +2103,7 @@
         <v>85</v>
       </c>
       <c r="D93">
-        <v>277.34</v>
+        <v>283</v>
       </c>
       <c r="G93">
         <v>749</v>
@@ -2117,7 +2117,7 @@
         <v>86</v>
       </c>
       <c r="D94">
-        <v>277.34</v>
+        <v>283</v>
       </c>
       <c r="G94">
         <v>749</v>
@@ -2131,7 +2131,7 @@
         <v>87</v>
       </c>
       <c r="D95">
-        <v>277.34</v>
+        <v>283</v>
       </c>
       <c r="G95">
         <v>749</v>
@@ -2145,7 +2145,7 @@
         <v>88</v>
       </c>
       <c r="D96">
-        <v>277.34</v>
+        <v>283</v>
       </c>
       <c r="G96">
         <v>749</v>
@@ -2411,10 +2411,10 @@
         <v>99</v>
       </c>
       <c r="D115">
-        <v>339.5</v>
+        <v>226.25</v>
       </c>
       <c r="G115">
-        <v>899</v>
+        <v>599</v>
       </c>
       <c r="J115" t="s">
         <v>12</v>
@@ -2425,10 +2425,10 @@
         <v>100</v>
       </c>
       <c r="D116">
-        <v>339.5</v>
+        <v>226.25</v>
       </c>
       <c r="G116">
-        <v>899</v>
+        <v>599</v>
       </c>
       <c r="J116" t="s">
         <v>12</v>
@@ -2439,10 +2439,10 @@
         <v>101</v>
       </c>
       <c r="D117">
-        <v>339.5</v>
+        <v>226.25</v>
       </c>
       <c r="G117">
-        <v>899</v>
+        <v>599</v>
       </c>
       <c r="J117" t="s">
         <v>12</v>
@@ -2453,10 +2453,10 @@
         <v>102</v>
       </c>
       <c r="D118">
-        <v>339.5</v>
+        <v>226.25</v>
       </c>
       <c r="G118">
-        <v>899</v>
+        <v>599</v>
       </c>
       <c r="J118" t="s">
         <v>12</v>
@@ -2495,7 +2495,7 @@
         <v>105</v>
       </c>
       <c r="D121">
-        <v>776.41</v>
+        <v>792.25</v>
       </c>
       <c r="G121">
         <v>2099</v>
@@ -2509,7 +2509,7 @@
         <v>106</v>
       </c>
       <c r="D122">
-        <v>776.41</v>
+        <v>792.25</v>
       </c>
       <c r="G122">
         <v>2099</v>
@@ -2523,7 +2523,7 @@
         <v>107</v>
       </c>
       <c r="D123">
-        <v>776.41</v>
+        <v>792.25</v>
       </c>
       <c r="G123">
         <v>2099</v>
@@ -2537,7 +2537,7 @@
         <v>108</v>
       </c>
       <c r="D124">
-        <v>776.41</v>
+        <v>792.25</v>
       </c>
       <c r="G124">
         <v>2099</v>
@@ -2551,7 +2551,7 @@
         <v>109</v>
       </c>
       <c r="D125">
-        <v>776.41</v>
+        <v>792.25</v>
       </c>
       <c r="G125">
         <v>2099</v>
@@ -2565,7 +2565,7 @@
         <v>110</v>
       </c>
       <c r="D126">
-        <v>776.41</v>
+        <v>792.25</v>
       </c>
       <c r="G126">
         <v>2099</v>
@@ -2663,7 +2663,7 @@
         <v>113</v>
       </c>
       <c r="D133">
-        <v>1109.36</v>
+        <v>1132</v>
       </c>
       <c r="G133">
         <v>2999</v>
@@ -2677,7 +2677,7 @@
         <v>114</v>
       </c>
       <c r="D134">
-        <v>1109.36</v>
+        <v>1132</v>
       </c>
       <c r="G134">
         <v>2999</v>
@@ -2691,7 +2691,7 @@
         <v>115</v>
       </c>
       <c r="D135">
-        <v>1109.36</v>
+        <v>1132</v>
       </c>
       <c r="G135">
         <v>2999</v>
@@ -2761,7 +2761,7 @@
         <v>117</v>
       </c>
       <c r="D140">
-        <v>554.6799999999999</v>
+        <v>566</v>
       </c>
       <c r="G140">
         <v>1499</v>
@@ -2775,7 +2775,7 @@
         <v>118</v>
       </c>
       <c r="D141">
-        <v>554.6799999999999</v>
+        <v>566</v>
       </c>
       <c r="G141">
         <v>1499</v>
@@ -2789,7 +2789,7 @@
         <v>119</v>
       </c>
       <c r="D142">
-        <v>554.6799999999999</v>
+        <v>566</v>
       </c>
       <c r="G142">
         <v>1499</v>
@@ -2845,7 +2845,7 @@
         <v>120</v>
       </c>
       <c r="D146">
-        <v>1053.75</v>
+        <v>1075.25</v>
       </c>
       <c r="G146">
         <v>2899</v>
@@ -2859,7 +2859,7 @@
         <v>121</v>
       </c>
       <c r="D147">
-        <v>1053.75</v>
+        <v>1075.25</v>
       </c>
       <c r="G147">
         <v>2899</v>
@@ -2873,7 +2873,7 @@
         <v>122</v>
       </c>
       <c r="D148">
-        <v>1053.75</v>
+        <v>1075.25</v>
       </c>
       <c r="G148">
         <v>2899</v>
@@ -2971,7 +2971,7 @@
         <v>126</v>
       </c>
       <c r="D155">
-        <v>332.71</v>
+        <v>339.5</v>
       </c>
       <c r="G155">
         <v>899</v>
@@ -2985,7 +2985,7 @@
         <v>127</v>
       </c>
       <c r="D156">
-        <v>332.71</v>
+        <v>339.5</v>
       </c>
       <c r="G156">
         <v>899</v>
@@ -2999,7 +2999,7 @@
         <v>128</v>
       </c>
       <c r="D157">
-        <v>332.71</v>
+        <v>339.5</v>
       </c>
       <c r="G157">
         <v>899</v>
@@ -3013,7 +3013,7 @@
         <v>129</v>
       </c>
       <c r="D158">
-        <v>332.71</v>
+        <v>339.5</v>
       </c>
       <c r="G158">
         <v>899</v>
@@ -3139,7 +3139,7 @@
         <v>134</v>
       </c>
       <c r="D167">
-        <v>443.7</v>
+        <v>452.75</v>
       </c>
       <c r="G167">
         <v>1199</v>
@@ -3153,7 +3153,7 @@
         <v>135</v>
       </c>
       <c r="D168">
-        <v>443.7</v>
+        <v>452.75</v>
       </c>
       <c r="G168">
         <v>1199</v>
@@ -3167,7 +3167,7 @@
         <v>136</v>
       </c>
       <c r="D169">
-        <v>443.7</v>
+        <v>452.75</v>
       </c>
       <c r="G169">
         <v>1199</v>
@@ -3237,7 +3237,7 @@
         <v>138</v>
       </c>
       <c r="D174">
-        <v>776.41</v>
+        <v>792.25</v>
       </c>
       <c r="G174">
         <v>2099</v>
@@ -3251,7 +3251,7 @@
         <v>139</v>
       </c>
       <c r="D175">
-        <v>776.41</v>
+        <v>792.25</v>
       </c>
       <c r="G175">
         <v>2099</v>
@@ -3265,7 +3265,7 @@
         <v>140</v>
       </c>
       <c r="D176">
-        <v>776.41</v>
+        <v>792.25</v>
       </c>
       <c r="G176">
         <v>2099</v>
@@ -3279,7 +3279,7 @@
         <v>141</v>
       </c>
       <c r="D177">
-        <v>776.41</v>
+        <v>792.25</v>
       </c>
       <c r="G177">
         <v>2099</v>
@@ -3293,7 +3293,7 @@
         <v>142</v>
       </c>
       <c r="D178">
-        <v>776.41</v>
+        <v>792.25</v>
       </c>
       <c r="G178">
         <v>2099</v>
@@ -3307,7 +3307,7 @@
         <v>143</v>
       </c>
       <c r="D179">
-        <v>776.41</v>
+        <v>792.25</v>
       </c>
       <c r="G179">
         <v>2099</v>
@@ -3321,7 +3321,7 @@
         <v>144</v>
       </c>
       <c r="D180">
-        <v>776.41</v>
+        <v>792.25</v>
       </c>
       <c r="G180">
         <v>2099</v>
